--- a/torgues.xlsx
+++ b/torgues.xlsx
@@ -24,34 +24,34 @@
     <t>debris</t>
   </si>
   <si>
-    <t>mass, g</t>
-  </si>
-  <si>
     <t>torgue, kg*cm</t>
   </si>
   <si>
-    <t>closer servo</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
     <t>bucket servo</t>
   </si>
   <si>
-    <t>closer</t>
-  </si>
-  <si>
-    <t>beams for bucket</t>
-  </si>
-  <si>
-    <t>beams for closer</t>
-  </si>
-  <si>
     <t>lever for bucket servo,cm</t>
   </si>
   <si>
-    <t>lever for closer servo,cm</t>
+    <t>weight, g</t>
+  </si>
+  <si>
+    <t>lever for cover servo,cm</t>
+  </si>
+  <si>
+    <t>cover servo</t>
+  </si>
+  <si>
+    <t>beams for mount bucket</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>beams for mount cover</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -396,8 +396,8 @@
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -409,24 +409,24 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>9.5</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>14</v>
@@ -486,12 +486,12 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <f>(B2*B3 + C2*C3+D2*D3+E2*E3+F2*F3+G2*G3) * J2/1000</f>
@@ -500,7 +500,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <f>(F2*F4+G2*G4)*J2/1000</f>

--- a/torgues.xlsx
+++ b/torgues.xlsx
@@ -24,9 +24,6 @@
     <t>debris</t>
   </si>
   <si>
-    <t>torgue, kg*cm</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>beams for mount cover</t>
+  </si>
+  <si>
+    <t>torque, kg*cm</t>
   </si>
 </sst>
 </file>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,7 +401,7 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -409,24 +409,24 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -446,13 +446,13 @@
       <c r="G2">
         <v>33</v>
       </c>
-      <c r="J2">
+      <c r="H2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>9.5</v>
@@ -473,9 +473,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>14</v>
@@ -484,26 +484,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <f>(B2*B3 + C2*C3+D2*D3+E2*E3+F2*F3+G2*G3) * J2/1000</f>
+        <f>(B2*B3 + C2*C3+D2*D3+E2*E3+F2*F3+G2*G3) * H2/1000</f>
         <v>7.4322000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <f>(F2*F4+G2*G4)*J2/1000</f>
+        <f>(F2*F4+G2*G4)*H2/1000</f>
         <v>1.5435000000000001</v>
       </c>
     </row>

--- a/torgues.xlsx
+++ b/torgues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>bucket</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>torque, kg*cm</t>
+  </si>
+  <si>
+    <t>levr foe turn bucket servo</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -488,6 +491,9 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="E6">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -505,6 +511,44 @@
       <c r="B8">
         <f>(F2*F4+G2*G4)*H2/1000</f>
         <v>1.5435000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <f>(B2*B12+C2*C12+D2*D12+E2*E12+F2*F12+G2*G12 + E6*E10) * H2 / 1000</f>
+        <v>11.413799999999998</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f>B3+$E$6</f>
+        <v>14.3</v>
+      </c>
+      <c r="C12">
+        <f>C3+$E$6</f>
+        <v>14.3</v>
+      </c>
+      <c r="D12">
+        <f>D3+$E$6</f>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="E12">
+        <f>E3+$E$6</f>
+        <v>14.3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:G12" si="0">F3+$E$6</f>
+        <v>22.8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>15.8</v>
       </c>
     </row>
   </sheetData>

--- a/torgues.xlsx
+++ b/torgues.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8460"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8460" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Servos" sheetId="1" r:id="rId1"/>
+    <sheet name="Motor" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>bucket</t>
   </si>
@@ -55,13 +55,37 @@
   </si>
   <si>
     <t>levr foe turn bucket servo</t>
+  </si>
+  <si>
+    <t>arm of force, cm</t>
+  </si>
+  <si>
+    <t>servo bucket up-down</t>
+  </si>
+  <si>
+    <t>servo bucket to side</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>servo cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K </t>
+  </si>
+  <si>
+    <t>moment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +124,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -178,6 +207,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -212,6 +242,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -387,14 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -404,7 +435,7 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -453,7 +484,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -476,7 +507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -487,7 +518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -495,7 +526,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -504,7 +535,7 @@
         <v>7.4322000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -513,7 +544,7 @@
         <v>1.5435000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>(B2*B12+C2*C12+D2*D12+E2*E12+F2*F12+G2*G12 + E6*E10) * H2 / 1000</f>
         <v>11.413799999999998</v>
@@ -522,7 +553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -557,24 +588,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>900</v>
+      </c>
+      <c r="K2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>52.5</v>
+      </c>
+      <c r="F3">
+        <v>61.25</v>
+      </c>
+      <c r="G3">
+        <v>62.5</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f>(B2*B3+C2*C3+D2*D3+E2*E3+F2*F3+G2*G3+H2*H3+I2*I3) * K2 / 1000</f>
+        <v>102.46875</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/torgues.xlsx
+++ b/torgues.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8460" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="16608" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Servos" sheetId="1" r:id="rId1"/>
     <sheet name="Motor" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>bucket</t>
   </si>
@@ -27,18 +27,9 @@
     <t>K</t>
   </si>
   <si>
-    <t>bucket servo</t>
-  </si>
-  <si>
-    <t>lever for bucket servo,cm</t>
-  </si>
-  <si>
     <t>weight, g</t>
   </si>
   <si>
-    <t>lever for cover servo,cm</t>
-  </si>
-  <si>
     <t>cover servo</t>
   </si>
   <si>
@@ -48,15 +39,9 @@
     <t>cover</t>
   </si>
   <si>
-    <t>beams for mount cover</t>
-  </si>
-  <si>
     <t>torque, kg*cm</t>
   </si>
   <si>
-    <t>levr foe turn bucket servo</t>
-  </si>
-  <si>
     <t>arm of force, cm</t>
   </si>
   <si>
@@ -66,9 +51,6 @@
     <t>servo bucket to side</t>
   </si>
   <si>
-    <t>chain</t>
-  </si>
-  <si>
     <t>servo cover</t>
   </si>
   <si>
@@ -79,6 +61,21 @@
   </si>
   <si>
     <t>moment</t>
+  </si>
+  <si>
+    <t>arm of force for cover servo,cm</t>
+  </si>
+  <si>
+    <t>arm of force for bucket servo,cm</t>
+  </si>
+  <si>
+    <t>arm of force for servo that turn bucket to side</t>
+  </si>
+  <si>
+    <t>bucket up-down servo</t>
+  </si>
+  <si>
+    <t>bucket to side servo</t>
   </si>
 </sst>
 </file>
@@ -419,23 +416,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -443,24 +440,21 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -477,16 +471,16 @@
       <c r="F2">
         <v>57</v>
       </c>
-      <c r="G2">
-        <v>33</v>
-      </c>
       <c r="H2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>9.5</v>
@@ -503,83 +497,77 @@
       <c r="F3">
         <v>18</v>
       </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>14</v>
-      </c>
-      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <f>B3+$J$2</f>
+        <v>14.3</v>
+      </c>
+      <c r="C5">
+        <f>C3+$J$2</f>
+        <v>14.3</v>
+      </c>
+      <c r="D5">
+        <f>D3+$J$2</f>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="E5">
+        <f>E3+$J$2</f>
+        <v>14.3</v>
+      </c>
+      <c r="F5">
+        <f>F3+$J$2</f>
+        <v>22.8</v>
+      </c>
+      <c r="G5">
+        <f>G3+$J$2</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <f>(B2*B3 + C2*C3+D2*D3+E2*E3+F2*F3+G2*G3) * H2/1000</f>
-        <v>7.4322000000000008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.8877000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <f>(F2*F4+G2*G4)*H2/1000</f>
-        <v>1.5435000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>(B2*B12+C2*C12+D2*D12+E2*E12+F2*F12+G2*G12 + E6*E10) * H2 / 1000</f>
-        <v>11.413799999999998</v>
-      </c>
-      <c r="E10">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="J8">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <f>B3+$E$6</f>
-        <v>14.3</v>
-      </c>
-      <c r="C12">
-        <f>C3+$E$6</f>
-        <v>14.3</v>
-      </c>
-      <c r="D12">
-        <f>D3+$E$6</f>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="E12">
-        <f>E3+$E$6</f>
-        <v>14.3</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ref="F12:G12" si="0">F3+$E$6</f>
-        <v>22.8</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>15.8</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <f>(B2*B5+C2*C5+D2*D5+E2*E5+F2*F5+G2*G5 + J2*J8) * H2 / 1000</f>
+        <v>10.6317</v>
       </c>
     </row>
   </sheetData>
@@ -589,21 +577,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -611,30 +600,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -655,18 +641,15 @@
         <v>50</v>
       </c>
       <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
         <v>900</v>
       </c>
-      <c r="K2">
+      <c r="J2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>70</v>
@@ -681,25 +664,22 @@
         <v>52.5</v>
       </c>
       <c r="F3">
-        <v>61.25</v>
+        <v>62.5</v>
       </c>
       <c r="G3">
-        <v>62.5</v>
+        <v>70</v>
       </c>
       <c r="H3">
-        <v>70</v>
-      </c>
-      <c r="I3">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <f>(B2*B3+C2*C3+D2*D3+E2*E3+F2*F3+G2*G3+H2*H3+I2*I3) * K2 / 1000</f>
-        <v>102.46875</v>
+        <f>(B2*B3+C2*C3+D2*D3+E2*E3+F2*F3+G2*G3+H2*H3) * J2 / 1000</f>
+        <v>97.875</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +693,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
